--- a/Evaluation/eval003/sub1177/Classifcation Report.xlsx
+++ b/Evaluation/eval003/sub1177/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9468085106382979</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8811881188118812</v>
+        <v>0.8712871287128713</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9128205128205128</v>
+        <v>0.9072164948453608</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8807339449541285</v>
       </c>
       <c r="C3" t="n">
         <v>0.9504950495049505</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9186602870813396</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -438,16 +438,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9158415841584159</v>
+        <v>0.9108910891089109</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9158415841584159</v>
+        <v>0.9108910891089109</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9158415841584159</v>
+        <v>0.9108910891089109</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9158415841584159</v>
+        <v>0.9108910891089109</v>
       </c>
     </row>
     <row r="5">
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9178486997635933</v>
+        <v>0.9134852520469567</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9158415841584158</v>
+        <v>0.9108910891089108</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9157403999509262</v>
+        <v>0.9107511045655375</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9178486997635933</v>
+        <v>0.9134852520469567</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9158415841584159</v>
+        <v>0.9108910891089109</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9157403999509262</v>
+        <v>0.9107511045655375</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
